--- a/MiniTemplate/Datas/item.xlsx
+++ b/MiniTemplate/Datas/item.xlsx
@@ -1,36 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\luban_examples\MiniTemplate\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5506492-D6E5-4F91-84BC-AC065C2279CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20328" windowHeight="9047"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -40,7 +24,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -50,7 +34,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -65,7 +49,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -75,7 +59,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>esc</t>
@@ -94,6 +78,24 @@
     <t>batch_useable</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>exchange_stream</t>
+  </si>
+  <si>
+    <t>exchange_list</t>
+  </si>
+  <si>
+    <t>exchange_column</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -103,10 +105,34 @@
     <t>string</t>
   </si>
   <si>
+    <t>int#ref=item.TbItem</t>
+  </si>
+  <si>
     <t>datetime?</t>
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>item.EQuality</t>
+  </si>
+  <si>
+    <t>item.ItemExchange</t>
+  </si>
+  <si>
+    <t>(list#sep=;),item.ItemExchange</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>c,s</t>
   </si>
   <si>
     <t>##</t>
@@ -117,7 +143,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>这是i</t>
@@ -127,7 +153,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -143,10 +169,19 @@
     <t>价格</t>
   </si>
   <si>
+    <t>引用当前表</t>
+  </si>
+  <si>
     <t>过期时间</t>
   </si>
   <si>
     <t>能否批量使用</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>道具兑换配置</t>
   </si>
   <si>
     <t>发型</t>
@@ -160,7 +195,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -170,55 +205,118 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ull</t>
     </r>
   </si>
   <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>10001,2</t>
+  </si>
+  <si>
+    <t>10001,2;10002,3</t>
+  </si>
+  <si>
     <t>外套</t>
   </si>
   <si>
     <t>初始外套</t>
   </si>
   <si>
+    <t>10002,2</t>
+  </si>
+  <si>
+    <t>10001,2;10002,4</t>
+  </si>
+  <si>
     <t>上衣</t>
   </si>
   <si>
     <t>初始上衣</t>
   </si>
   <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>10003,3</t>
+  </si>
+  <si>
+    <t>10001,2;10002,5</t>
+  </si>
+  <si>
     <t>裙子</t>
   </si>
   <si>
     <t>初始下装</t>
   </si>
   <si>
+    <t>10004,3</t>
+  </si>
+  <si>
+    <t>10001,2;10002,6</t>
+  </si>
+  <si>
     <t>袜子</t>
   </si>
   <si>
     <t>初始袜子</t>
   </si>
   <si>
+    <t>10005,4</t>
+  </si>
+  <si>
+    <t>10001,2;10002,7</t>
+  </si>
+  <si>
     <t>鞋子</t>
   </si>
   <si>
     <t>初始鞋子</t>
   </si>
   <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>10006,4</t>
+  </si>
+  <si>
+    <t>10001,2;10002,8</t>
+  </si>
+  <si>
     <t>发饰</t>
   </si>
   <si>
     <t>初始发饰</t>
   </si>
   <si>
+    <t>10007,5</t>
+  </si>
+  <si>
+    <t>10001,2;10002,9</t>
+  </si>
+  <si>
     <t>中秋节发饰</t>
   </si>
   <si>
+    <t>10008,5</t>
+  </si>
+  <si>
+    <t>10001,2;10002,10</t>
+  </si>
+  <si>
     <t>中秋节鞋子</t>
   </si>
   <si>
+    <t>10009,6</t>
+  </si>
+  <si>
+    <t>10001,2;10002,11</t>
+  </si>
+  <si>
     <t>礼包</t>
   </si>
   <si>
@@ -228,148 +326,26 @@
     <t>null</t>
   </si>
   <si>
-    <t>quality</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHITE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLUE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PURPLE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>RED</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用当前表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.EQuality</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.ItemExchange</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具兑换配置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int#ref=item.TbItem</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchange_list</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;),item.ItemExchange</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,2;10002,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,2;10002,4</t>
-  </si>
-  <si>
-    <t>10001,2;10002,5</t>
-  </si>
-  <si>
-    <t>10001,2;10002,6</t>
-  </si>
-  <si>
-    <t>10001,2;10002,7</t>
-  </si>
-  <si>
-    <t>10001,2;10002,8</t>
-  </si>
-  <si>
-    <t>10001,2;10002,9</t>
-  </si>
-  <si>
-    <t>10001,2;10002,10</t>
-  </si>
-  <si>
-    <t>10001,2;10002,11</t>
+  </si>
+  <si>
+    <t>10000,6</t>
   </si>
   <si>
     <t>10001,2;10002,12</t>
-  </si>
-  <si>
-    <t>10001,2</t>
-  </si>
-  <si>
-    <t>10002,2</t>
-  </si>
-  <si>
-    <t>10003,3</t>
-  </si>
-  <si>
-    <t>10004,3</t>
-  </si>
-  <si>
-    <t>10005,4</t>
-  </si>
-  <si>
-    <t>10006,4</t>
-  </si>
-  <si>
-    <t>10007,5</t>
-  </si>
-  <si>
-    <t>10008,5</t>
-  </si>
-  <si>
-    <t>10009,6</t>
-  </si>
-  <si>
-    <t>10000,6</t>
-  </si>
-  <si>
-    <t>exchange_stream</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchange_column</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,36 +355,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -416,12 +378,141 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,8 +531,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -451,112 +716,393 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -814,74 +1360,74 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="13.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="12.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.8796296296296" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="5.12962962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="15"/>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -904,27 +1450,27 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="15"/>
+    <row r="2" s="1" customFormat="1" spans="1:35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="9"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -947,45 +1493,45 @@
       <c r="AH2"/>
       <c r="AI2"/>
     </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
+    <row r="3" s="2" customFormat="1" spans="1:35">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="9"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1008,43 +1554,33 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="15"/>
+    <row r="4" s="2" customFormat="1" spans="1:35">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="9"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1067,383 +1603,442 @@
       <c r="AH4"/>
       <c r="AI4"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="5" s="1" customFormat="1" spans="1:35">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="9"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6">
         <v>10000</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>10001</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="16">
-        <v>10001</v>
-      </c>
-      <c r="M5" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>10001</v>
-      </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6">
-        <v>10002</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>10001</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="L6" s="17">
         <v>10001</v>
       </c>
-      <c r="M6" s="16">
-        <v>3</v>
+      <c r="M6" s="17">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="B7">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7">
-        <v>10003</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>10002</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>43</v>
+      <c r="I7" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="16">
+        <v>45</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="17">
         <v>10001</v>
       </c>
-      <c r="M7" s="16">
-        <v>4</v>
+      <c r="M7" s="17">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8">
-        <v>10004</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>10003</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>43</v>
+      <c r="I8" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="16">
+        <v>50</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="17">
         <v>10001</v>
       </c>
-      <c r="M8" s="16">
-        <v>5</v>
+      <c r="M8" s="17">
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13">
       <c r="B9">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9">
-        <v>10005</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>10004</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>43</v>
+      <c r="I9" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="16">
+        <v>54</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="17">
         <v>10001</v>
       </c>
-      <c r="M9" s="16">
-        <v>6</v>
+      <c r="M9" s="17">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13">
       <c r="B10">
-        <v>10005</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>10004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10">
-        <v>10006</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>10005</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>44</v>
+      <c r="I10" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="17">
+        <v>10001</v>
+      </c>
+      <c r="M10" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11">
+        <v>10005</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="16">
-        <v>10001</v>
-      </c>
-      <c r="M10" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>10006</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11">
-        <v>10007</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>10006</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>44</v>
+      <c r="I11" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="16">
+        <v>63</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="17">
         <v>10001</v>
       </c>
-      <c r="M11" s="16">
-        <v>8</v>
+      <c r="M11" s="17">
+        <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13">
       <c r="B12">
+        <v>10006</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
         <v>10007</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <v>10008</v>
-      </c>
-      <c r="G12" s="4">
-        <v>44479.999988425901</v>
+      <c r="G12" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>43</v>
+      <c r="I12" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="16">
+        <v>67</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="17">
         <v>10001</v>
       </c>
-      <c r="M12" s="16">
-        <v>9</v>
+      <c r="M12" s="17">
+        <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13">
       <c r="B13">
+        <v>10007</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
         <v>10008</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>10009</v>
-      </c>
-      <c r="G13" s="4">
-        <v>44480.999988425901</v>
+      <c r="G13" s="6">
+        <v>44479.9999884259</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>44</v>
+      <c r="I13" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="J13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="17">
+        <v>10001</v>
+      </c>
+      <c r="M13" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14">
+        <v>10008</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>10009</v>
+      </c>
+      <c r="G14" s="6">
+        <v>44480.9999884259</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="L14" s="17">
         <v>10001</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M14" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="15" spans="2:13">
+      <c r="B15">
         <v>10009</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14">
+      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15">
         <v>100</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>10000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="b">
+      <c r="G15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="16">
+      <c r="I15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="17">
         <v>10001</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M15" s="17">
         <v>11</v>
       </c>
     </row>
@@ -1452,8 +2047,8 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/MiniTemplate/Datas/item.xlsx
+++ b/MiniTemplate/Datas/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="9047"/>
+    <workbookView windowWidth="20304" windowHeight="8364"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -254,6 +254,9 @@
     <t>初始下装</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>10004,3</t>
   </si>
   <si>
@@ -266,6 +269,9 @@
     <t>初始袜子</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>10005,4</t>
   </si>
   <si>
@@ -278,6 +284,9 @@
     <t>初始鞋子</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>PURPLE</t>
   </si>
   <si>
@@ -291,6 +300,9 @@
   </si>
   <si>
     <t>初始发饰</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>10007,5</t>
@@ -345,7 +357,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,20 +375,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -868,10 +866,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,7 +878,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,134 +887,134 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,13 +1035,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1369,7 +1360,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1578,8 +1569,8 @@
       <c r="K4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="9"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -1684,19 +1675,19 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="14">
         <v>10001</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1719,22 +1710,22 @@
       <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="b">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J7" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="14">
         <v>10001</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1757,22 +1748,22 @@
       <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="14">
         <v>10001</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="14">
         <v>4</v>
       </c>
     </row>
@@ -1795,22 +1786,22 @@
       <c r="G9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="17">
+      <c r="K9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="14">
         <v>10001</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="14">
         <v>5</v>
       </c>
     </row>
@@ -1819,10 +1810,10 @@
         <v>10004</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1833,22 +1824,22 @@
       <c r="G10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="17">
+        <v>60</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="14">
         <v>10001</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="14">
         <v>6</v>
       </c>
     </row>
@@ -1857,10 +1848,10 @@
         <v>10005</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1871,22 +1862,22 @@
       <c r="G11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>62</v>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="17">
+        <v>66</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="14">
         <v>10001</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="14">
         <v>7</v>
       </c>
     </row>
@@ -1895,10 +1886,10 @@
         <v>10006</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1909,22 +1900,22 @@
       <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>62</v>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="17">
+        <v>71</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="14">
         <v>10001</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="14">
         <v>8</v>
       </c>
     </row>
@@ -1933,10 +1924,10 @@
         <v>10007</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>200</v>
@@ -1950,19 +1941,19 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="17">
+        <v>74</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="14">
         <v>10001</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="14">
         <v>9</v>
       </c>
     </row>
@@ -1971,10 +1962,10 @@
         <v>10008</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>300</v>
@@ -1988,19 +1979,19 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>62</v>
+      <c r="I14" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="17">
+        <v>77</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="14">
         <v>10001</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="14">
         <v>10</v>
       </c>
     </row>
@@ -2009,10 +2000,10 @@
         <v>10009</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2021,24 +2012,24 @@
         <v>10000</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>78</v>
+      <c r="I15" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="17">
+        <v>83</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="14">
         <v>10001</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="14">
         <v>11</v>
       </c>
     </row>
